--- a/GERAL/Média.xlsx
+++ b/GERAL/Média.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vinicius Dias Araujo\GERAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41135795-3DFA-476D-898F-1AE95AD84A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C69C7F-1371-45F1-BFCD-820035C92DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13320" yWindow="3750" windowWidth="15375" windowHeight="7875" xr2:uid="{348D0657-DCA4-4134-BB75-13ACE15E0384}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{348D0657-DCA4-4134-BB75-13ACE15E0384}"/>
   </bookViews>
   <sheets>
     <sheet name="Primeiro Médio" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>MÉDIA</t>
   </si>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t>,</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
 </sst>
 </file>
@@ -788,7 +785,7 @@
   <dimension ref="A2:U136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,7 +917,7 @@
       <c r="D5" s="17">
         <v>9.1</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="18">
         <f t="shared" ref="E5:E19" si="0">(B5*0.2)+(C5*0.3)+(D5*0.5)</f>
         <v>8.9499999999999993</v>
       </c>
@@ -971,7 +968,7 @@
       <c r="D6" s="17">
         <v>8</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="18">
         <f t="shared" si="0"/>
         <v>8.4600000000000009</v>
       </c>
@@ -1021,7 +1018,7 @@
       <c r="D7" s="17">
         <v>8</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="18">
         <f t="shared" si="0"/>
         <v>8.4600000000000009</v>
       </c>
@@ -1071,7 +1068,7 @@
       <c r="D8" s="17">
         <v>7</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="18">
         <f t="shared" si="0"/>
         <v>7.0299999999999994</v>
       </c>
@@ -1121,7 +1118,7 @@
       <c r="D9" s="17">
         <v>8</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="18">
         <f t="shared" si="0"/>
         <v>7.14</v>
       </c>
@@ -1172,7 +1169,7 @@
       <c r="D10" s="17">
         <v>7.1</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="18">
         <f t="shared" si="0"/>
         <v>7.71</v>
       </c>
@@ -1217,14 +1214,14 @@
         <v>7.3</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="10" t="e">
+        <v>6</v>
+      </c>
+      <c r="D11" s="17">
+        <v>6.3</v>
+      </c>
+      <c r="E11" s="18">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>6.41</v>
       </c>
       <c r="I11" s="26" t="s">
         <v>8</v>
@@ -1272,7 +1269,7 @@
       <c r="D12" s="17">
         <v>8.4</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="18">
         <f t="shared" si="0"/>
         <v>8.27</v>
       </c>
@@ -1325,7 +1322,7 @@
       <c r="D13" s="17">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="18">
         <f t="shared" si="0"/>
         <v>8.86</v>
       </c>
@@ -1375,7 +1372,7 @@
       <c r="D14" s="17">
         <v>8.5</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="18">
         <f t="shared" si="0"/>
         <v>7.96</v>
       </c>
@@ -1425,7 +1422,7 @@
       <c r="D15" s="17">
         <v>7</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="18">
         <f t="shared" si="0"/>
         <v>7.6</v>
       </c>
@@ -1475,7 +1472,7 @@
       <c r="D16" s="17">
         <v>6.5</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="18">
         <f t="shared" si="0"/>
         <v>7.71</v>
       </c>
@@ -1522,12 +1519,12 @@
       <c r="C17" s="8">
         <v>10</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="10" t="e">
-        <f>(B17*0.2)+(C17*0.3)+(D17*0.5)</f>
-        <v>#VALUE!</v>
+      <c r="D17" s="17">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E17" s="18">
+        <f t="shared" si="0"/>
+        <v>8.8099999999999987</v>
       </c>
       <c r="I17" s="26" t="s">
         <v>14</v>
@@ -1575,7 +1572,7 @@
       <c r="D18" s="17">
         <v>8.5</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="18">
         <f t="shared" si="0"/>
         <v>7.96</v>
       </c>
@@ -1626,7 +1623,7 @@
       <c r="D19" s="17">
         <v>9</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="18">
         <f t="shared" si="0"/>
         <v>8.9600000000000009</v>
       </c>
